--- a/biology/Botanique/Chusquea_culeou/Chusquea_culeou.xlsx
+++ b/biology/Botanique/Chusquea_culeou/Chusquea_culeou.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chusquea culeou  est une espèce de plantes arbustives pérennes de la famille des Poaceae (Graminée), appartenant à la sous-famille des Bambusoideae, les bambous. Elle est appelée localement colihue, coligüe (du mapudungun kuliw), caña colihue, caña coligüe ou caña.
 Elle croît dans les zones humides des forêts tempérées du sud du Chili et du sud-est de l'Argentine.
